--- a/training/output/CNN/P/P2_P0.xlsx
+++ b/training/output/CNN/P/P2_P0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9276315789473685</v>
+        <v>0.495</v>
       </c>
       <c r="B2" t="n">
-        <v>1.632061182406911</v>
+        <v>1.699094474315643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.6458333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>1.479213877728111</v>
+        <v>1.452696651220322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.6891666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>1.444575491704439</v>
+        <v>1.357457339763641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.7558333333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>1.417121201230769</v>
+        <v>1.315303117036819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.993421052631579</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>1.421732224916157</v>
+        <v>1.263875603675842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8008333333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>1.421727140744527</v>
+        <v>1.214610576629639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9758771929824561</v>
+        <v>0.8208333333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>1.480604694600691</v>
+        <v>1.224900484085083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8216666666666665</v>
       </c>
       <c r="B9" t="n">
-        <v>1.422242574524461</v>
+        <v>1.145793348550797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>1.403454228451378</v>
+        <v>1.137521535158157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.8616666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.437825290780318</v>
+        <v>1.075704723596573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.993421052631579</v>
+        <v>0.88</v>
       </c>
       <c r="B12" t="n">
-        <v>1.419394547479194</v>
+        <v>1.030365630984306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8575</v>
       </c>
       <c r="B13" t="n">
-        <v>1.419162503459997</v>
+        <v>1.017701506614685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.993421052631579</v>
+        <v>0.875</v>
       </c>
       <c r="B14" t="n">
-        <v>1.412148588582089</v>
+        <v>1.024277046322823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.405728691502621</v>
+        <v>1.005847126245499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.417503371573331</v>
+        <v>0.9508224278688431</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8875</v>
       </c>
       <c r="B17" t="n">
-        <v>1.399289515980503</v>
+        <v>0.9461843967437744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8733333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>1.400781466249834</v>
+        <v>0.952763631939888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.410610627709774</v>
+        <v>0.8957958072423935</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8716666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.455683179068984</v>
+        <v>0.8734988868236542</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.426061488034432</v>
+        <v>0.9205380231142044</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>1.414245749774732</v>
+        <v>0.9398849606513977</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.8925</v>
       </c>
       <c r="B23" t="n">
-        <v>1.413520946837308</v>
+        <v>0.8808217644691467</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>1.401123891796982</v>
+        <v>0.8702275454998016</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.411759257316589</v>
+        <v>0.8703535348176956</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8941666666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.393564933224728</v>
+        <v>0.8515974134206772</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9033333333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>1.393429883739405</v>
+        <v>0.8269173353910446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9075</v>
       </c>
       <c r="B28" t="n">
-        <v>1.398387417458651</v>
+        <v>0.8399515748023987</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8791666666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>1.396999930080615</v>
+        <v>0.8190838992595673</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8983333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.396980848228722</v>
+        <v>0.8333932012319565</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.905</v>
       </c>
       <c r="B31" t="n">
-        <v>1.415121894133718</v>
+        <v>0.7907676696777344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8966666666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>1.402943199140984</v>
+        <v>0.8095640391111374</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.89</v>
       </c>
       <c r="B33" t="n">
-        <v>1.40007445895881</v>
+        <v>0.8657723516225815</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>1.402541959494875</v>
+        <v>0.8066066801548004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8966666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>1.421768238669948</v>
+        <v>0.8123406022787094</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.915</v>
       </c>
       <c r="B36" t="n">
-        <v>1.39834803865667</v>
+        <v>0.7893800437450409</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.915</v>
       </c>
       <c r="B37" t="n">
-        <v>1.394648031184548</v>
+        <v>0.7825360745191574</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9025</v>
       </c>
       <c r="B38" t="n">
-        <v>1.391295171620553</v>
+        <v>0.81805419921875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>1.391506169971667</v>
+        <v>0.8208076357841492</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1.401975790659587</v>
+        <v>0.7876852005720139</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.392650752736811</v>
+        <v>0.7765326052904129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>1.392454354386581</v>
+        <v>0.7598446011543274</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9275</v>
       </c>
       <c r="B43" t="n">
-        <v>1.391992960059852</v>
+        <v>0.7863485962152481</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9225</v>
       </c>
       <c r="B44" t="n">
-        <v>1.393951441112318</v>
+        <v>0.7752879709005356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9058333333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>1.392712781303807</v>
+        <v>0.7730407118797302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.389986485765691</v>
+        <v>0.7542711049318314</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.401273206660622</v>
+        <v>0.7553830146789551</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9116666666666667</v>
       </c>
       <c r="B48" t="n">
-        <v>1.404850579144662</v>
+        <v>0.7507237195968628</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>1.397304007881566</v>
+        <v>0.7459457665681839</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9191666666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>1.39510024430459</v>
+        <v>0.745709165930748</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9275</v>
       </c>
       <c r="B51" t="n">
-        <v>1.391848982426158</v>
+        <v>0.7571252286434174</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9133333333333333</v>
       </c>
       <c r="B52" t="n">
-        <v>1.413033872319941</v>
+        <v>0.7613991945981979</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.92</v>
       </c>
       <c r="B53" t="n">
-        <v>1.399142922016612</v>
+        <v>0.7552391141653061</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>1.408625393583063</v>
+        <v>0.7515246272087097</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0.9033333333333333</v>
       </c>
       <c r="B55" t="n">
-        <v>1.423054548732021</v>
+        <v>0.7758658528327942</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.427102387997142</v>
+        <v>0.7680979371070862</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>1.420614662923311</v>
+        <v>0.7403453141450882</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B58" t="n">
-        <v>1.398606199967234</v>
+        <v>0.7476900666952133</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9133333333333333</v>
       </c>
       <c r="B59" t="n">
-        <v>1.391435062676145</v>
+        <v>0.7361539751291275</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>1.440552632013957</v>
+        <v>0.7371567487716675</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>1.400721353397035</v>
+        <v>0.7357449382543564</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.92</v>
       </c>
       <c r="B62" t="n">
-        <v>1.407625489067613</v>
+        <v>0.7370350807905197</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>1.410421407013609</v>
+        <v>0.7314180433750153</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>1.392667688821492</v>
+        <v>0.7346891015768051</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B65" t="n">
-        <v>1.394708173316822</v>
+        <v>0.7359154224395752</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>1.424705846267834</v>
+        <v>0.7318940162658691</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B67" t="n">
-        <v>1.399338391789219</v>
+        <v>0.7402436584234238</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390718895092345</v>
+        <v>0.7309456914663315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389827872577466</v>
+        <v>0.7303639352321625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.39029250019475</v>
+        <v>0.7408047765493393</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9258333333333333</v>
       </c>
       <c r="B71" t="n">
-        <v>1.42986482068112</v>
+        <v>0.732224777340889</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B72" t="n">
-        <v>1.404794117860627</v>
+        <v>0.7304919362068176</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>1.457179073701825</v>
+        <v>0.7304078936576843</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>1.404184617494282</v>
+        <v>0.7459382563829422</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9158333333333333</v>
       </c>
       <c r="B75" t="n">
-        <v>1.410195522141038</v>
+        <v>0.7411012500524521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9158333333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>1.399622940180594</v>
+        <v>0.7364575564861298</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9225</v>
       </c>
       <c r="B77" t="n">
-        <v>1.396459918273123</v>
+        <v>0.7312739789485931</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B78" t="n">
-        <v>1.404839457127086</v>
+        <v>0.7261110842227936</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>1.424829662891856</v>
+        <v>0.7350797951221466</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9225</v>
       </c>
       <c r="B80" t="n">
-        <v>1.397624693418804</v>
+        <v>0.7342536300420761</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="B81" t="n">
-        <v>1.442313043694747</v>
+        <v>0.8186121433973312</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B82" t="n">
-        <v>1.413193527020906</v>
+        <v>0.730432540178299</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9208333333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.39628927958639</v>
+        <v>0.7403428256511688</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B84" t="n">
-        <v>1.427174377859684</v>
+        <v>0.7414683997631073</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>1.392713011356822</v>
+        <v>0.7397284954786301</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>1.398452476451271</v>
+        <v>0.7418335229158401</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9258333333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>1.391724536293431</v>
+        <v>0.7328143268823624</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B88" t="n">
-        <v>1.451933628634403</v>
+        <v>0.7346221506595612</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B89" t="n">
-        <v>1.390537167850294</v>
+        <v>0.7209611088037491</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9258333333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.396029415883516</v>
+        <v>0.7262886166572571</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9283333333333333</v>
       </c>
       <c r="B91" t="n">
-        <v>1.392435400109542</v>
+        <v>0.7276978641748428</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B92" t="n">
-        <v>1.388486178297746</v>
+        <v>0.7290954142808914</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B93" t="n">
-        <v>1.390044348281726</v>
+        <v>0.718729704618454</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="B94" t="n">
-        <v>1.389084083992138</v>
+        <v>0.7272518277168274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B95" t="n">
-        <v>1.391610670508</v>
+        <v>0.723574623465538</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B96" t="n">
-        <v>1.38783844102893</v>
+        <v>0.7231981754302979</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>1.391229391098022</v>
+        <v>0.7244636565446854</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B98" t="n">
-        <v>1.392059744450084</v>
+        <v>0.730923056602478</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B99" t="n">
-        <v>1.393735741314135</v>
+        <v>0.7202835530042648</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9158333333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>1.393010068358036</v>
+        <v>0.7206181585788727</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9208333333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390756908215975</v>
+        <v>0.7236419767141342</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7200964987277985</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7218911647796631</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7209150642156601</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7207950204610825</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7148076891899109</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7196358740329742</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.718866303563118</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7178964912891388</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7248681485652924</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7232355177402496</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9308333333333333</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7261747568845749</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7237195670604706</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7188783288002014</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7182062268257141</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.723180428147316</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9283333333333333</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7339647263288498</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7188145816326141</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7183403074741364</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7296181172132492</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.717474102973938</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7192782908678055</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7177564054727554</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7180826812982559</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7205455452203751</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.726687103509903</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7190449088811874</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7179912626743317</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.722075030207634</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9133333333333333</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7156570255756378</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7148869931697845</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9133333333333333</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7142091989517212</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7146317213773727</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7269693464040756</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7203760594129562</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7184494286775589</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7257492542266846</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7186147123575211</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7153875380754471</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7237294912338257</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7249053120613098</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7146061807870865</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7174531072378159</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7255471497774124</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7162476778030396</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.716256707906723</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7230076938867569</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7221316695213318</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7324604988098145</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7206689864397049</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.8975</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7976020872592926</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9108333333333333</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7294643521308899</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9233333333333332</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7224299013614655</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7370443940162659</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7145834863185883</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7202142328023911</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7200852185487747</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7203596979379654</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7123680710792542</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7328695952892303</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7142951786518097</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7149563133716583</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7176841199398041</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7147336900234222</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7160343825817108</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7135099470615387</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7145896255970001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7187800258398056</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7325334250926971</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7173452526330948</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7269372791051865</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7156193554401398</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7339795380830765</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7243919968605042</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7141379714012146</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.714799627661705</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7294489592313766</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7261732369661331</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9258333333333333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7179642021656036</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7161524593830109</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7131635248661041</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7212476581335068</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7217251807451248</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.723784327507019</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7165897786617279</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7180638462305069</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7166253626346588</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7176613807678223</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7253220081329346</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7197550535202026</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7153038531541824</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7224786877632141</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.719078540802002</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7182553708553314</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.718984842300415</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.714391902089119</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9233333333333333</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7241603881120682</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9258333333333333</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7264983803033829</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9183333333333333</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7204945683479309</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9258333333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7162822782993317</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9158333333333334</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7114265114068985</v>
       </c>
     </row>
   </sheetData>
